--- a/example/i18n/backup/en/_todo_en.xlsx
+++ b/example/i18n/backup/en/_todo_en.xlsx
@@ -209,22 +209,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>equip.jewelrysuit</t>
+          <t>other.drop</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80级橙色套装</t>
+          <t>测试掉落</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -241,7 +241,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -251,7 +251,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>测试掉落</t>
+          <t>剧情任务测试2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -268,7 +268,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -278,7 +278,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>剧情任务测试2</t>
+          <t>通告栏掉落染色模板1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -290,12 +290,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>other.drop</t>
+          <t>other.loot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -305,7 +305,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>通告栏掉落染色模板1</t>
+          <t>测试掉落</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -322,7 +322,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -332,7 +332,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>测试掉落</t>
+          <t>小宝箱</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -349,7 +349,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -359,7 +359,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>小宝箱</t>
+          <t>中宝箱</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -376,7 +376,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -386,7 +386,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>中宝箱</t>
+          <t>大宝箱</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -403,7 +403,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -413,7 +413,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大宝箱</t>
+          <t>测试掉落2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -430,7 +430,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -440,7 +440,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>测试掉落2</t>
+          <t>剧情任务测试1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>剧情任务测试1</t>
+          <t>剧情任务测试2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -484,7 +484,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>剧情任务测试2</t>
+          <t>通告栏掉落染色模板1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>通告栏掉落染色模板1</t>
+          <t>通告栏掉落染色模板2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>通告栏掉落染色模板2</t>
+          <t>通告栏掉落染色模板3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -560,22 +560,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>other.loot</t>
+          <t>task.task</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>通告栏掉落染色模板3</t>
+          <t>杀个怪</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>杀个怪</t>
+          <t>杀怪</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -619,17 +619,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>杀怪</t>
+          <t>和npc对话</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>和npc对话</t>
+          <t>收集物品</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>收集物品</t>
+          <t>杀怪并且收集物品</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>杀怪并且收集物品</t>
+          <t>杀怪对话并且收集物品</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>杀怪对话并且收集物品</t>
+          <t>聊天并且杀怪</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>聊天并且杀怪</t>
+          <t>测试转义符号</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>测试转义符号</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>测试无参数得bean</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -943,17 +943,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>测试无参数得bean</t>
+          <t>测试2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>测试2</t>
+          <t>测试默认bean</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -992,22 +992,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>task.task</t>
+          <t>task.task2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>测试默认bean</t>
+          <t>测试用</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>测试用</t>
+          <t>和npc对话</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>和npc对话</t>
+          <t>收集物品</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>收集物品</t>
+          <t>杀怪并且收集物品</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>杀怪并且收集物品</t>
+          <t>杀怪对话并且收集物品</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>杀怪对话并且收集物品</t>
+          <t>聊天并且杀怪</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>聊天并且杀怪</t>
+          <t>测试转义符号</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>测试转义符号</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>测试</t>
+          <t>测试无参数得bean</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1348,17 +1348,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>name-1</t>
+          <t>name-0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>测试无参数得bean</t>
+          <t>测试2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1380,42 +1380,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>name-0</t>
+          <t>name-1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>测试2</t>
+          <t>测试默认bean</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>task.task2</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>name-1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>测试默认bean</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1529,6 +1502,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>equip.jewelrysuit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80级橙色套装</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
